--- a/Todolist.xlsx
+++ b/Todolist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>任务</t>
   </si>
@@ -22,6 +22,9 @@
     <t>子任务</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
     <t>问题</t>
   </si>
   <si>
@@ -31,43 +34,34 @@
     <t>编码实战(具体)</t>
   </si>
   <si>
-    <t>安装Docker</t>
-  </si>
-  <si>
-    <t>安装k8s</t>
-  </si>
-  <si>
-    <t>安装rancher</t>
-  </si>
-  <si>
-    <t>安装harvester</t>
+    <t>从零实现docker(继续拆解任务)</t>
+  </si>
+  <si>
+    <t>未开始</t>
   </si>
   <si>
     <t>技术博客</t>
   </si>
   <si>
-    <t>部署中心</t>
-  </si>
-  <si>
-    <t>Daemonset方式部署agent</t>
-  </si>
-  <si>
-    <t>在namespace1中创建虚拟机1（Liniux），部署agent</t>
-  </si>
-  <si>
-    <t>在namespace2中创建虚拟机2（Windows），部署agent</t>
-  </si>
-  <si>
-    <t>agent跟中心网络互通</t>
+    <t>知乎文章 groupcache 源代码分析</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/350190031</t>
   </si>
   <si>
     <t>视频录制</t>
   </si>
   <si>
-    <t>Docker版本自动化部署脚本</t>
-  </si>
-  <si>
-    <t>k8s版本自动化部署脚本</t>
+    <t>及时恢复视频中的反馈信息</t>
+  </si>
+  <si>
+    <t>动手实验</t>
+  </si>
+  <si>
+    <t>Linux Namespace命名空间知识学习及实验</t>
+  </si>
+  <si>
+    <t>Linux CGroup资源控制学习及实验</t>
   </si>
 </sst>
 </file>
@@ -75,8 +69,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -97,6 +91,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <name val="等线"/>
@@ -111,6 +113,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -126,6 +163,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -133,22 +186,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,65 +217,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,31 +233,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,187 +271,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,6 +462,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,8 +498,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,17 +519,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,15 +534,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -573,152 +567,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,10 +728,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1059,20 +1056,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="55.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="1" max="1" width="17.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="41.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="8.63636363636364" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,94 +1083,108 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2"/>
-      <c r="B4" t="s">
+      <c r="B4"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C4"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" ht="17" customHeight="1" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:2">
+    <row r="7" ht="17" customHeight="1" spans="1:1">
       <c r="A7" s="4"/>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4"/>
-      <c r="B8" t="s">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4"/>
-      <c r="B9" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4"/>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" display="https://zhuanlan.zhihu.com/p/350190031"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/Todolist.xlsx
+++ b/Todolist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9444"/>
+    <workbookView windowWidth="18530" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>任务</t>
   </si>
@@ -25,6 +25,9 @@
     <t>状态</t>
   </si>
   <si>
+    <t>优先级</t>
+  </si>
+  <si>
     <t>问题</t>
   </si>
   <si>
@@ -49,10 +52,19 @@
     <t>https://zhuanlan.zhihu.com/p/350190031</t>
   </si>
   <si>
+    <t>netfilter_queue的原理和实践</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
     <t>视频录制</t>
   </si>
   <si>
-    <t>及时恢复视频中的反馈信息</t>
+    <t>从零实现groupcache的视频没有声音</t>
+  </si>
+  <si>
+    <t>及时回复b站视频中的评论和反馈</t>
   </si>
   <si>
     <t>动手实验</t>
@@ -62,6 +74,12 @@
   </si>
   <si>
     <t>Linux CGroup资源控制学习及实验</t>
+  </si>
+  <si>
+    <t>Docker Image镜像格式详解</t>
+  </si>
+  <si>
+    <t>预计开始时间  5-17</t>
   </si>
 </sst>
 </file>
@@ -113,8 +131,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,42 +193,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,41 +206,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,9 +222,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,20 +239,34 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -256,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,25 +289,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,157 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +492,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,30 +521,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,8 +543,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,17 +569,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,152 +597,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,10 +755,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1056,21 +1089,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.8181818181818" customWidth="1"/>
-    <col min="2" max="2" width="41.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="8.63636363636364" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="1" max="1" width="17.8153846153846" customWidth="1"/>
+    <col min="2" max="2" width="41.3615384615385" customWidth="1"/>
+    <col min="3" max="3" width="8.63846153846154" customWidth="1"/>
+    <col min="4" max="4" width="6.84615384615385" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,50 +1120,60 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2"/>
-      <c r="B3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
-      <c r="B4"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2"/>
-      <c r="B5"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="17" customHeight="1" spans="1:4">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="17" customHeight="1" spans="1:1">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="17" customHeight="1" spans="1:4">
       <c r="A7" s="4"/>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4"/>
@@ -1140,40 +1184,56 @@
     <row r="10" spans="1:1">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6"/>
-      <c r="D12" s="7"/>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1183,7 +1243,7 @@
     <mergeCell ref="A13:A15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="https://zhuanlan.zhihu.com/p/350190031"/>
+    <hyperlink ref="E6" r:id="rId1" display="https://zhuanlan.zhihu.com/p/350190031"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Todolist.xlsx
+++ b/Todolist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>任务</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>https://zhuanlan.zhihu.com/p/350190031</t>
+  </si>
+  <si>
+    <t>Elkeid 驱动部分学习 源代码分析</t>
+  </si>
+  <si>
+    <t>trace_buffer.c文件需要好好看下</t>
   </si>
   <si>
     <t>视频录制</t>
@@ -70,8 +76,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -114,6 +120,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -121,6 +142,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -134,30 +162,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,60 +208,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -233,8 +216,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -244,6 +242,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +283,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -289,7 +301,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,157 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,26 +486,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,18 +513,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -542,8 +522,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,153 +557,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,7 +1065,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1101,17 +1107,14 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
-      <c r="B3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2"/>
-      <c r="B4"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2"/>
-      <c r="B5"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:4">
@@ -1137,15 +1140,21 @@
     <row r="9" spans="1:1">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:4">
       <c r="A10" s="4"/>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1154,10 +1163,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1166,7 +1175,7 @@
     <row r="14" spans="1:3">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>

--- a/Todolist.xlsx
+++ b/Todolist.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9444"/>
+    <workbookView windowWidth="23325" windowHeight="9840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="小步快走，多次迭代" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -58,7 +58,7 @@
     <t>视频录制</t>
   </si>
   <si>
-    <t>及时恢复视频中的反馈信息</t>
+    <t>及时回复视频中的反馈信息</t>
   </si>
   <si>
     <t>动手实验</t>
@@ -75,9 +75,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -126,6 +126,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -135,28 +163,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,23 +171,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,10 +202,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,25 +248,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,49 +277,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,13 +427,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,115 +451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,6 +468,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -488,24 +503,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,30 +517,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,11 +538,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +576,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,16 +588,16 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,115 +606,115 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,14 +1065,14 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.8181818181818" customWidth="1"/>
-    <col min="2" max="2" width="41.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="8.63636363636364" customWidth="1"/>
+    <col min="1" max="1" width="17.8166666666667" customWidth="1"/>
+    <col min="2" max="2" width="41.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="8.63333333333333" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Todolist.xlsx
+++ b/Todolist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>任务</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>https://zhuanlan.zhihu.com/p/350190031</t>
+  </si>
+  <si>
+    <t>还有问题未解答</t>
   </si>
   <si>
     <t>Elkeid 驱动部分学习 源代码分析</t>
@@ -75,8 +78,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -99,7 +102,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,6 +123,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -127,21 +144,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,11 +165,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,22 +193,6 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,14 +213,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -217,8 +220,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -226,37 +258,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,43 +280,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +418,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,108 +454,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,18 +461,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,21 +471,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,13 +489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,17 +513,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,17 +546,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,148 +576,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -734,7 +737,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1065,7 +1068,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1074,6 +1077,7 @@
     <col min="2" max="2" width="41.3666666666667" customWidth="1"/>
     <col min="3" max="3" width="8.63333333333333" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1117,7 +1121,7 @@
       <c r="A5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:4">
+    <row r="6" ht="17" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1129,6 +1133,9 @@
       </c>
       <c r="D6" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:1">
@@ -1143,18 +1150,18 @@
     <row r="10" spans="1:4">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1163,10 +1170,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1175,7 +1182,7 @@
     <row r="14" spans="1:3">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
